--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algonox123\Documents\Uipath\FIJI_NonEDI_COE_Process _New\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algonox123\Documents\Uipath\FIJI_NonEDI_COE_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DD37D3-C1C2-44D4-BBB6-A06B82F950B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862CF90D-2B01-4418-87C4-D493FF7EB1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,9 +1217,6 @@
     <t>SingularityVendorNameField</t>
   </si>
   <si>
-    <t>server.singularitysystems.com:9001</t>
-  </si>
-  <si>
     <t>EX-LBM-NEDI-0024</t>
   </si>
   <si>
@@ -1356,6 +1353,9 @@
   </si>
   <si>
     <t>mswalker</t>
+  </si>
+  <si>
+    <t>server.singularitysystems.com:9000</t>
   </si>
 </sst>
 </file>
@@ -2021,8 +2021,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>CONCATENATE(A19,",",A20,",",A21,",",A25,",",A26,",",A27,",",A28,",",A29,",",A30)</f>
@@ -2190,10 +2190,10 @@
         <v>159</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
@@ -2232,12 +2232,12 @@
         <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Inputs\OracleWindow</v>
       </c>
       <c r="C22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1">
       <c r="A23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B23" t="str">
         <f>B18 &amp; "MappingFiles\"</f>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1">
       <c r="A24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B24" t="str">
         <f>B18 &amp; "Templates\"</f>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1">
       <c r="A26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B26" t="str">
         <f>B18 &amp; "SingularityData\"</f>
@@ -2321,11 +2321,11 @@
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1">
       <c r="A32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B32" t="str">
-        <f>B23 &amp; "FIJI_NonEDI_OCR_CustomerIDMappingFile.xlsx"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\MappingFiles\FIJI_NonEDI_OCR_CustomerIDMappingFile.xlsx</v>
+        <f>B23 &amp; "FIJI_NonEDI_OCR_CustomerIDMappingFile.xlsm"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\MappingFiles\FIJI_NonEDI_OCR_CustomerIDMappingFile.xlsm</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B34" t="str">
         <f ca="1">B20 &amp; "FIJI_NonEDI_SummaryReport_"&amp;TEXT(NOW(),"DD-MM-yyyyHHmm")&amp;".xlsx"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Outputs\FIJI_NonEDI_SummaryReport_09-04-20231846.xlsx</v>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Outputs\FIJI_NonEDI_SummaryReport_11-04-20231430.xlsx</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1">
@@ -2359,12 +2359,12 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1">
       <c r="A37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B37" t="s">
         <v>336</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B42" s="12">
         <f ca="1">TODAY()</f>
-        <v>45025</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1">
@@ -2551,7 +2551,7 @@
         <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="12" customHeight="1">
@@ -2564,10 +2564,10 @@
     </row>
     <row r="61" spans="1:2" ht="12" customHeight="1">
       <c r="A61" t="s">
+        <v>406</v>
+      </c>
+      <c r="B61" t="s">
         <v>407</v>
-      </c>
-      <c r="B61" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1">
@@ -2639,18 +2639,18 @@
     </row>
     <row r="71" spans="1:3" ht="12" customHeight="1">
       <c r="A71" t="s">
+        <v>434</v>
+      </c>
+      <c r="B71" t="s">
         <v>435</v>
-      </c>
-      <c r="B71" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12" customHeight="1">
       <c r="A72" t="s">
+        <v>436</v>
+      </c>
+      <c r="B72" t="s">
         <v>437</v>
-      </c>
-      <c r="B72" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12" customHeight="1">
@@ -2699,7 +2699,7 @@
         <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12" customHeight="1">
@@ -2938,10 +2938,10 @@
     </row>
     <row r="103" spans="1:3" ht="12" customHeight="1">
       <c r="A103" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12" customHeight="1">
@@ -2973,7 +2973,7 @@
         <v>193</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="12" customHeight="1">
@@ -3058,18 +3058,18 @@
     </row>
     <row r="118" spans="1:3" s="16" customFormat="1" ht="12" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="16" customFormat="1" ht="12" customHeight="1">
       <c r="A119" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12" customHeight="1">
@@ -3504,7 +3504,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>242</v>
@@ -3687,18 +3687,18 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3753,7 +3753,7 @@
         <v>294</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>254</v>
@@ -3770,7 +3770,7 @@
         <v>341</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -3785,7 +3785,7 @@
         <v>295</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -3800,7 +3800,7 @@
         <v>296</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>255</v>
@@ -3817,7 +3817,7 @@
         <v>297</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -3832,7 +3832,7 @@
         <v>298</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -3844,13 +3844,13 @@
         <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
@@ -3874,7 +3874,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3890,7 +3890,7 @@
         <v>295</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>256</v>
@@ -3907,7 +3907,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>257</v>
@@ -4070,35 +4070,35 @@
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.5" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algonox123\Documents\Uipath\FIJI_NonEDI_COE_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862CF90D-2B01-4418-87C4-D493FF7EB1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D216E5-7112-463E-9782-6434D67A973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="448">
   <si>
     <t>Name</t>
   </si>
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
@@ -161,9 +161,6 @@
     <t>FIJ_NonEDI_COE_OracleEBS_Credentials</t>
   </si>
   <si>
-    <t>OutlookMailSubjectFilter</t>
-  </si>
-  <si>
     <t>KillAllProcessNames</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>EX-LBM-NEDI-0007</t>
   </si>
   <si>
-    <t>sunil.marri@wonderful.com</t>
-  </si>
-  <si>
     <t>Move_FolderName</t>
   </si>
   <si>
@@ -677,9 +671,6 @@
     <t>Email_Reply_Body_Partially_Completed</t>
   </si>
   <si>
-    <t>Inbox</t>
-  </si>
-  <si>
     <t>EX-LBM-NEDI-0004</t>
   </si>
   <si>
@@ -1016,18 +1007,12 @@
     <t>Hi Team,; Bot is failed at clicking multi pop up's</t>
   </si>
   <si>
-    <t>Hi Team,; No attachments found on th is mail.</t>
-  </si>
-  <si>
     <t>Execution Completed Successfully For NonEDI CustomerOrderEntry Process</t>
   </si>
   <si>
     <t>Hi Team,;Exception occurred while opening the application.Please find attached screenshot for reference and run the process manually.</t>
   </si>
   <si>
-    <t>Manual Entered Orders</t>
-  </si>
-  <si>
     <t>Summary Report</t>
   </si>
   <si>
@@ -1157,9 +1142,6 @@
     <t>Test setting enabled, please disable in config file to submit the customer orders</t>
   </si>
   <si>
-    <t>https://fijiebsdev.wonderful.com/OA_HTML/AppsLocalLogin.jsp</t>
-  </si>
-  <si>
     <t>Row field is not found in output singularity file</t>
   </si>
   <si>
@@ -1356,6 +1338,51 @@
   </si>
   <si>
     <t>server.singularitysystems.com:9000</t>
+  </si>
+  <si>
+    <t>OutlookReceiveAccountName</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_SummaryReport_SDFolderPath</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_OutlookReceiveAccountName</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_OutlookMailFolder</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_OutlookProcessedMailFolder</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_ApplicationExceptionMailsFrom</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_BusinessNotificationMailsFrom</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_OutlookSentAccountName</t>
+  </si>
+  <si>
+    <t>Best Regards,&lt;Br&gt;FIJI Water CS Team.</t>
+  </si>
+  <si>
+    <t>ManualReviewExpMsg</t>
+  </si>
+  <si>
+    <t>Attachment is moving to Manual review</t>
+  </si>
+  <si>
+    <t>NoAttachmentsExpMsg</t>
+  </si>
+  <si>
+    <t>Attachments is not present in mail</t>
+  </si>
+  <si>
+    <t>Hi Team,; No attachments found on this mail.</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_OracleEBSURL</t>
   </si>
 </sst>
 </file>
@@ -1365,11 +1392,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1450,6 +1484,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1524,17 +1565,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1545,47 +1588,53 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{93DE01BB-DDB3-445D-ABEC-A1EDF9EED1F1}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{13827309-0D2C-42A6-82E7-5125A7793DD1}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{A48CBB67-1370-490C-8556-35D72CAC2B3D}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{56185D18-FE19-4579-ACA1-2DED8DD9B52E}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{79FFBEFB-E024-456A-BC80-028EA6581992}"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2019,10 +2068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -2052,7 +2101,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1">
@@ -2063,7 +2112,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1">
@@ -2071,1107 +2120,1064 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
+        <v>85</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1">
-      <c r="A11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="s">
-        <v>141</v>
+      <c r="A11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>CONCATENATE(A14,",",A15,",",A16,",",A20,",",A21,",",A22,",",A23,",",A24,",",A25)</f>
+        <v>InputsFolderPath,OutputsFolderPath,AttachmentsFolderPath,ExceptionScreenShotFolderPath,SingularityDataFolderPath,SingularityOutputsFolderPath,SingularityInputsFolderPath,ProcessedFolderPath,ExceptionFolderPath</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1">
+        <v>157</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="B14" t="str">
+        <f>B13 &amp; "Inputs\"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Inputs\</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1">
       <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="B15" t="str">
+        <f>B13 &amp; "Outputs\"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Outputs\</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="4" t="b">
-        <v>0</v>
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="str">
+        <f>B14</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Inputs\</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>CONCATENATE(A19,",",A20,",",A21,",",A25,",",A26,",",A27,",",A28,",",A29,",",A30)</f>
-        <v>InputsFolderPath,OutputsFolderPath,AttachmentsFolderPath,ExceptionScreenShotFolderPath,SingularityDataFolderPath,SingularityOutputsFolderPath,SingularityInputsFolderPath,ProcessedFolderPath,ExceptionFolderPath</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="str">
+        <f>B14 &amp; "OracleWindow"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Inputs\OracleWindow</v>
+      </c>
+      <c r="C17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1">
       <c r="A18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="C18" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+        <v>416</v>
+      </c>
+      <c r="B18" t="str">
+        <f>B13 &amp; "MappingFiles\"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\MappingFiles\</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>417</v>
       </c>
       <c r="B19" t="str">
-        <f>B18 &amp; "Inputs\"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Inputs\</v>
+        <f>B13 &amp; "Templates\"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Templates\</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="B20" t="str">
-        <f>B18 &amp; "Outputs\"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Outputs\</v>
+        <f>B13&amp;"ExceptionScreenshot\"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\ExceptionScreenshot\</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>418</v>
       </c>
       <c r="B21" t="str">
-        <f>B19</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Inputs\</v>
+        <f>B13 &amp; "SingularityData\"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\SingularityData\</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B22" t="str">
-        <f>B19 &amp; "OracleWindow"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Inputs\OracleWindow</v>
-      </c>
-      <c r="C22" t="s">
-        <v>420</v>
+        <f>B21 &amp; "Outputs\"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\SingularityData\Outputs\</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1">
       <c r="A23" t="s">
-        <v>422</v>
+        <v>110</v>
       </c>
       <c r="B23" t="str">
-        <f>B18 &amp; "MappingFiles\"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\MappingFiles\</v>
+        <f>B21 &amp; "Inputs\"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\SingularityData\Inputs\</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1">
       <c r="A24" t="s">
-        <v>423</v>
+        <v>203</v>
       </c>
       <c r="B24" t="str">
-        <f>B18 &amp; "Templates\"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Templates\</v>
+        <f>B21 &amp; "Processed\"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\SingularityData\Processed\</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="B25" t="str">
-        <f>B18&amp;"ExceptionScreenshot\"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\ExceptionScreenshot\</v>
-      </c>
-      <c r="C25" t="s">
-        <v>222</v>
+        <f>B21 &amp; "Exceptions\"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\SingularityData\Exceptions\</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1">
       <c r="A26" t="s">
-        <v>424</v>
+        <v>31</v>
       </c>
       <c r="B26" t="str">
-        <f>B18 &amp; "SingularityData\"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\SingularityData\</v>
+        <f>B18 &amp; "FIJI_NonEDI_OCR_CustomerMappingFile.xlsx"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\MappingFiles\FIJI_NonEDI_OCR_CustomerMappingFile.xlsx</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>398</v>
       </c>
       <c r="B27" t="str">
-        <f>B26 &amp; "Outputs\"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\SingularityData\Outputs\</v>
+        <f>B18 &amp; "FIJI_NonEDI_OCR_CustomerIDMappingFile.xlsm"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\MappingFiles\FIJI_NonEDI_OCR_CustomerIDMappingFile.xlsm</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="B28" t="str">
-        <f>B26 &amp; "Inputs\"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\SingularityData\Inputs\</v>
+        <f>B19 &amp; "FIJI_NonEDI_OCR_SummaryReportTemplate.xlsx"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Templates\FIJI_NonEDI_OCR_SummaryReportTemplate.xlsx</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="B29" t="str">
-        <f>B26 &amp; "Processed\"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\SingularityData\Processed\</v>
+        <f ca="1">B15 &amp; "FIJI_NonEDI_SummaryReport_"&amp;TEXT(NOW(),"DD-MM-yyyyHHmm")&amp;".xlsx"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Outputs\FIJI_NonEDI_SummaryReport_14-04-20231925.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1">
       <c r="A30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B30" t="str">
-        <f>B26 &amp; "Exceptions\"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\SingularityData\Exceptions\</v>
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="str">
-        <f>B23 &amp; "FIJI_NonEDI_OCR_CustomerMappingFile.xlsx"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\MappingFiles\FIJI_NonEDI_OCR_CustomerMappingFile.xlsx</v>
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1">
       <c r="A32" t="s">
-        <v>404</v>
-      </c>
-      <c r="B32" t="str">
-        <f>B23 &amp; "FIJI_NonEDI_OCR_CustomerIDMappingFile.xlsm"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\MappingFiles\FIJI_NonEDI_OCR_CustomerIDMappingFile.xlsm</v>
+        <v>399</v>
+      </c>
+      <c r="B32" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="str">
-        <f>B24 &amp; "FIJI_NonEDI_OCR_SummaryReportTemplate.xlsx"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Templates\FIJI_NonEDI_OCR_SummaryReportTemplate.xlsx</v>
+        <v>312</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="str">
-        <f ca="1">B20 &amp; "FIJI_NonEDI_SummaryReport_"&amp;TEXT(NOW(),"DD-MM-yyyyHHmm")&amp;".xlsx"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Outputs\FIJI_NonEDI_SummaryReport_11-04-20231430.xlsx</v>
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>410</v>
+        <v>82</v>
+      </c>
+      <c r="B36" s="12">
+        <f ca="1">TODAY()</f>
+        <v>45030</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1">
       <c r="A39" t="s">
-        <v>315</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>219</v>
+        <v>91</v>
+      </c>
+      <c r="B39" t="str">
+        <f>A40&amp;","&amp;A41&amp;","&amp;A42&amp;","&amp;A43</f>
+        <v>SingularityPurchaseOrderField,SingularityShipToDateField,SingularityShipToLocationField,SingularityVendorNameField</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1">
       <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="12">
-        <f ca="1">TODAY()</f>
-        <v>45027</v>
+        <v>94</v>
+      </c>
+      <c r="B42" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1">
       <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
+        <v>385</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1">
       <c r="A45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" t="str">
-        <f>A46&amp;","&amp;A47&amp;","&amp;A48&amp;","&amp;A49</f>
-        <v>SingularityPurchaseOrderField,SingularityShipToDateField,SingularityShipToLocationField,SingularityVendorNameField</v>
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="12" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="12" customHeight="1">
       <c r="A49" t="s">
-        <v>391</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="12" customHeight="1">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12" customHeight="1">
       <c r="A50" t="s">
-        <v>357</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="12" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="12" customHeight="1">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="12" customHeight="1">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="12" customHeight="1">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="12" customHeight="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12" customHeight="1">
       <c r="A54" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="12" customHeight="1">
+        <v>383</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12" customHeight="1">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="12" customHeight="1">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="12" customHeight="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="12" customHeight="1">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="12" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12" customHeight="1">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="12" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12" customHeight="1">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="12" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12" customHeight="1">
       <c r="A60" t="s">
-        <v>389</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="12" customHeight="1">
-      <c r="A61" t="s">
-        <v>406</v>
+        <v>144</v>
+      </c>
+      <c r="B60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="B61" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="12" customHeight="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B62" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12" customHeight="1">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="12" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="12" customHeight="1">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>369</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12" customHeight="1">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12" customHeight="1">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B67" t="s">
-        <v>386</v>
+      <c r="A67" t="s">
+        <v>370</v>
+      </c>
+      <c r="B67" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>388</v>
+      <c r="A68" t="s">
+        <v>131</v>
       </c>
       <c r="B68" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12" customHeight="1">
       <c r="A69" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="B69" t="str">
+        <f>B13 &amp; "DoNotTouchFiles\Minio.py"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\DoNotTouchFiles\Minio.py</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12" customHeight="1">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>375</v>
-      </c>
-      <c r="C70" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12" customHeight="1">
       <c r="A71" t="s">
-        <v>434</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>435</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12" customHeight="1">
       <c r="A72" t="s">
-        <v>436</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12" customHeight="1">
       <c r="A73" t="s">
-        <v>376</v>
-      </c>
-      <c r="B73" s="4">
-        <v>5</v>
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12" customHeight="1">
       <c r="A74" t="s">
-        <v>133</v>
-      </c>
-      <c r="B74" s="4">
-        <v>1</v>
+        <v>346</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12" customHeight="1">
       <c r="A75" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" t="str">
-        <f>B18 &amp; "DoNotTouchFiles\Minio.py"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\DoNotTouchFiles\Minio.py</v>
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12" customHeight="1">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12" customHeight="1">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>337</v>
+      </c>
+      <c r="C77" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12" customHeight="1">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>438</v>
+        <v>318</v>
+      </c>
+      <c r="C78" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12" customHeight="1">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12" customHeight="1">
       <c r="A80" t="s">
-        <v>351</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>352</v>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12" customHeight="1">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12" customHeight="1">
       <c r="A82" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" t="s">
-        <v>320</v>
+        <v>164</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12" customHeight="1">
       <c r="A83" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" t="s">
-        <v>342</v>
+        <v>165</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12" customHeight="1">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>321</v>
+        <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12" customHeight="1">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12" customHeight="1">
       <c r="A86" t="s">
-        <v>162</v>
-      </c>
-      <c r="B86" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="B86" t="str">
+        <f>"[" &amp; B4 &amp; "]:Application Exception Notification"</f>
+        <v>[FIJ_NonEDI_COE(OCR)_Process]:Application Exception Notification</v>
       </c>
       <c r="C86" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12" customHeight="1">
       <c r="A87" t="s">
-        <v>164</v>
-      </c>
-      <c r="B87" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="B87" t="str">
+        <f xml:space="preserve"> "[" &amp;  B4 &amp; "]:Business Exception Notification"</f>
+        <v>[FIJ_NonEDI_COE(OCR)_Process]:Business Exception Notification</v>
       </c>
       <c r="C87" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="12" customHeight="1">
-      <c r="A88" t="s">
-        <v>166</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12" customHeight="1">
       <c r="A89" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
+        <v>322</v>
       </c>
       <c r="C89" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12" customHeight="1">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>323</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12" customHeight="1">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
-      </c>
-      <c r="C91" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12" customHeight="1">
       <c r="A92" t="s">
-        <v>171</v>
-      </c>
-      <c r="B92" t="str">
-        <f>"[" &amp; B4 &amp; "]:Application Exception Notification"</f>
-        <v>[FIJ_NonEDI_COE(OCR)_Process]:Application Exception Notification</v>
+        <v>175</v>
+      </c>
+      <c r="B92" t="s">
+        <v>327</v>
       </c>
       <c r="C92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12" customHeight="1">
       <c r="A93" t="s">
-        <v>172</v>
-      </c>
-      <c r="B93" t="str">
-        <f xml:space="preserve"> "[" &amp;  B4 &amp; "]:Business Exception Notification"</f>
-        <v>[FIJ_NonEDI_COE(OCR)_Process]:Business Exception Notification</v>
+        <v>176</v>
+      </c>
+      <c r="B93" t="s">
+        <v>328</v>
       </c>
       <c r="C93" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="12" customHeight="1">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" t="s">
+        <v>329</v>
+      </c>
+      <c r="C94" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12" customHeight="1">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B95" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C95" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12" customHeight="1">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B96" t="s">
-        <v>327</v>
-      </c>
-      <c r="C96" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="12" customHeight="1">
+      <c r="A97" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="12" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="12" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="12" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="12" customHeight="1">
+      <c r="A101" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="12" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="12" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="12" customHeight="1">
+      <c r="A104" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="12" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="12" customHeight="1">
+      <c r="A106" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="12" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="12" customHeight="1">
+      <c r="A108" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="12" customHeight="1">
+      <c r="A109" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="12" customHeight="1">
+      <c r="A110" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="16" customFormat="1" ht="12" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="16" customFormat="1" ht="12" customHeight="1">
+      <c r="A112" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="16" customFormat="1" ht="12" customHeight="1">
+      <c r="A113" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="12" customHeight="1">
+      <c r="A114" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="12" customHeight="1">
+      <c r="A115" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="12" customHeight="1">
+      <c r="A116" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="12" customHeight="1">
+      <c r="A117" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="12" customHeight="1">
+      <c r="A118" t="s">
+        <v>179</v>
+      </c>
+      <c r="B118" t="s">
+        <v>342</v>
+      </c>
+      <c r="C118" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="12" customHeight="1">
+      <c r="A119" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C119" t="s">
+        <v>334</v>
+      </c>
+      <c r="D119" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="12" customHeight="1">
-      <c r="A97" t="s">
-        <v>204</v>
-      </c>
-      <c r="B97" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="12" customHeight="1">
-      <c r="A98" t="s">
-        <v>177</v>
-      </c>
-      <c r="B98" t="s">
-        <v>332</v>
-      </c>
-      <c r="C98" t="s">
+    <row r="120" spans="1:4" ht="12" customHeight="1">
+      <c r="A120" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" t="s">
+        <v>181</v>
+      </c>
+      <c r="C120" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="12" customHeight="1">
-      <c r="A99" t="s">
-        <v>178</v>
-      </c>
-      <c r="B99" t="s">
-        <v>333</v>
-      </c>
-      <c r="C99" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="12" customHeight="1">
-      <c r="A100" t="s">
-        <v>179</v>
-      </c>
-      <c r="B100" t="s">
-        <v>334</v>
-      </c>
-      <c r="C100" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="12" customHeight="1">
-      <c r="A101" t="s">
-        <v>180</v>
-      </c>
-      <c r="B101" t="s">
-        <v>333</v>
-      </c>
-      <c r="C101" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="12" customHeight="1">
-      <c r="A102" t="s">
-        <v>187</v>
-      </c>
-      <c r="B102" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="12" customHeight="1">
-      <c r="A103" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="12" customHeight="1">
-      <c r="A104" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="12" customHeight="1">
-      <c r="A105" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="12" customHeight="1">
-      <c r="A106" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="12" customHeight="1">
-      <c r="A107" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="12" customHeight="1">
-      <c r="A108" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="12" customHeight="1">
-      <c r="A109" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="12" customHeight="1">
-      <c r="A110" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="12" customHeight="1">
-      <c r="A111" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="12" customHeight="1">
-      <c r="A112" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="12" customHeight="1">
-      <c r="A113" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B113" s="15" t="s">
+    <row r="121" spans="1:4" ht="12" customHeight="1">
+      <c r="A121" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="12" customHeight="1">
-      <c r="A115" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="12" customHeight="1">
-      <c r="A116" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="16" customFormat="1" ht="12" customHeight="1">
-      <c r="A117" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="16" customFormat="1" ht="12" customHeight="1">
-      <c r="A118" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="16" customFormat="1" ht="12" customHeight="1">
-      <c r="A119" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="12" customHeight="1">
-      <c r="A120" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="12" customHeight="1">
-      <c r="A121" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="12" customHeight="1">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:4" ht="12" customHeight="1">
+      <c r="A122" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="12" customHeight="1">
-      <c r="A123" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="12" customHeight="1">
+    </row>
+    <row r="123" spans="1:4" ht="12" customHeight="1">
+      <c r="A123" t="s">
+        <v>442</v>
+      </c>
+      <c r="B123" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="12" customHeight="1">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>444</v>
       </c>
       <c r="B124" t="s">
-        <v>347</v>
-      </c>
-      <c r="C124" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="12" customHeight="1">
-      <c r="A125" t="s">
-        <v>235</v>
-      </c>
-      <c r="B125" t="s">
-        <v>339</v>
-      </c>
-      <c r="C125" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="12" customHeight="1">
-      <c r="A126" t="s">
-        <v>182</v>
-      </c>
-      <c r="B126" t="s">
-        <v>183</v>
-      </c>
-      <c r="C126" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="12" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B127" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="12" customHeight="1">
-      <c r="A128" t="s">
-        <v>214</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="A95">
+  <phoneticPr fontId="7"/>
+  <conditionalFormatting sqref="A89">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  <conditionalFormatting sqref="A90:A110 A79:A88 A112:A120 A122 A124">
+    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128 A96:A116 A85:A94 A118:A126">
-    <cfRule type="duplicateValues" dxfId="6" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128 A85:A116 A118:A126">
-    <cfRule type="duplicateValues" dxfId="5" priority="30"/>
+  <conditionalFormatting sqref="A79:A110 A112:A120 A122 A124">
+    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3184,7 +3190,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5" customHeight="1"/>
@@ -3237,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
@@ -3248,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
@@ -3259,7 +3265,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
@@ -3267,10 +3273,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
@@ -3278,10 +3284,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
@@ -3289,10 +3295,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
@@ -3300,10 +3306,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
@@ -3311,10 +3317,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
@@ -3322,10 +3328,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
@@ -3336,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
@@ -3347,7 +3353,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
@@ -3358,19 +3364,19 @@
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="14">
         <v>60000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3392,10 +3398,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>3</v>
@@ -3403,306 +3409,306 @@
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>419</v>
+        <v>411</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3712,8 +3718,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="13.5" customHeight="1"/>
@@ -3727,387 +3733,387 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="4" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A27">
-    <cfRule type="duplicateValues" dxfId="3" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="32"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4118,13 +4124,14 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" customWidth="1"/>
     <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
@@ -4140,7 +4147,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4167,119 +4174,176 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -5243,14 +5307,20 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A13 A6:A7">
+  <conditionalFormatting sqref="A6:A7 A10:A14">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A20">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algonox123\Documents\Uipath\FIJI_NonEDI_COE_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D216E5-7112-463E-9782-6434D67A973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D964783-8FE4-4955-93E1-6D0C3C29889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="454">
   <si>
     <t>Name</t>
   </si>
@@ -392,9 +392,6 @@
     <t>PythonLanguageFolderPath</t>
   </si>
   <si>
-    <t>C:\Users\algonox123\AppData\Local\Programs\Python\Python36</t>
-  </si>
-  <si>
     <t>DownloadPythonFunctionName</t>
   </si>
   <si>
@@ -518,9 +515,6 @@
     <t>ExceptionScreenShotFolderPath</t>
   </si>
   <si>
-    <t>OutputSummaryFolderPath</t>
-  </si>
-  <si>
     <t>Asset_Credentials_Suffix</t>
   </si>
   <si>
@@ -701,9 +695,6 @@
     <t>FoldertosaveexceptionScreenShots</t>
   </si>
   <si>
-    <t>\Output\SummaryReport\</t>
-  </si>
-  <si>
     <t>Valuesforsegeratingthecredentialswhileretrevingtheassests</t>
   </si>
   <si>
@@ -872,9 +863,6 @@
     <t>Killing Processes..IE &amp; Chrome</t>
   </si>
   <si>
-    <t>Reading Vendor Mapping &amp; Summary File</t>
-  </si>
-  <si>
     <t>Successfully Created Output Excel File in Local Path - {0}</t>
   </si>
   <si>
@@ -929,9 +917,6 @@
     <t>Fijiorder: PO number is already referenced by another order</t>
   </si>
   <si>
-    <t>Vendor Code is not present in mapping file</t>
-  </si>
-  <si>
     <t>Customer PO already exists</t>
   </si>
   <si>
@@ -989,9 +974,6 @@
     <t>Ship To</t>
   </si>
   <si>
-    <t>Vendor Product Code</t>
-  </si>
-  <si>
     <t>read mail,send mail,move mail,delete mail</t>
   </si>
   <si>
@@ -1031,9 +1013,6 @@
     <t>Hi Team,;Unable to launch {0} Application.Please find attached screenshot for reference and rerun the process manually.</t>
   </si>
   <si>
-    <t>FIJI NonEDI(OCR)COE Bot Started</t>
-  </si>
-  <si>
     <t>Sheet1</t>
   </si>
   <si>
@@ -1064,9 +1043,6 @@
     <t>Hi Team,; Unable to find the location in Oracle: {0}&lt;BR&gt;&lt;BR&gt;Also attached is the output from the PDF order for reference.</t>
   </si>
   <si>
-    <t>Hi Team,; TWC Bot is started it's run at {0}. It will provide summary reportsoon.</t>
-  </si>
-  <si>
     <t>Hi Team,;Bot has encountered 3 Consecutive Application Failures and It will not continue processing of remaining work items. Please validate the application issues and rerun the process manually.</t>
   </si>
   <si>
@@ -1106,12 +1082,6 @@
     <t>Hi Team,; Singularity row field: {0} is missed in output file</t>
   </si>
   <si>
-    <t>Vendor Product Code or Quantity Column is not found in output singularity file</t>
-  </si>
-  <si>
-    <t>Hi Team,;The PONumber:{0} Successfully created</t>
-  </si>
-  <si>
     <t>EX-LBM-NEDI-0021</t>
   </si>
   <si>
@@ -1202,9 +1172,6 @@
     <t>EX-LBM-NEDI-0024</t>
   </si>
   <si>
-    <t>Vendor Name is not present in vendor mapping file</t>
-  </si>
-  <si>
     <t>Email_Body_VendorName_Missed</t>
   </si>
   <si>
@@ -1298,91 +1265,142 @@
     <t>SingularityDataFolderPath</t>
   </si>
   <si>
+    <t>Due To Poor Network Connectivity or Application Down Time</t>
+  </si>
+  <si>
+    <t>Invalid Username or Password</t>
+  </si>
+  <si>
+    <t>Invalid Order Item</t>
+  </si>
+  <si>
+    <t>EX-LBM-NEDI-0026</t>
+  </si>
+  <si>
+    <t>Missing Template/Mapping files: {0}</t>
+  </si>
+  <si>
+    <t>ProcessFolders</t>
+  </si>
+  <si>
+    <t>Email_Body_Missing_Mappingfiles</t>
+  </si>
+  <si>
+    <t>Hi Team,;Missing Mapping files in shared folder: {0}</t>
+  </si>
+  <si>
+    <t>LocationChefWHMapp</t>
+  </si>
+  <si>
+    <t>chefswarehouse</t>
+  </si>
+  <si>
+    <t>LocationMSWMapp</t>
+  </si>
+  <si>
+    <t>mswalker</t>
+  </si>
+  <si>
+    <t>server.singularitysystems.com:9000</t>
+  </si>
+  <si>
+    <t>OutlookReceiveAccountName</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_SummaryReport_SDFolderPath</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_OutlookReceiveAccountName</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_OutlookMailFolder</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_OutlookProcessedMailFolder</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_ApplicationExceptionMailsFrom</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_BusinessNotificationMailsFrom</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_OutlookSentAccountName</t>
+  </si>
+  <si>
+    <t>ManualReviewExpMsg</t>
+  </si>
+  <si>
+    <t>Attachment is moving to Manual review</t>
+  </si>
+  <si>
+    <t>NoAttachmentsExpMsg</t>
+  </si>
+  <si>
+    <t>Attachments is not present in mail</t>
+  </si>
+  <si>
+    <t>Hi Team,; No attachments found on this mail.</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_OracleEBSURL</t>
+  </si>
+  <si>
+    <t>Customer Product Code</t>
+  </si>
+  <si>
+    <t>Reading Customer Mapping &amp; Summary File</t>
+  </si>
+  <si>
+    <t>Customer Product Code is not present in mapping file</t>
+  </si>
+  <si>
+    <t>Customer Name is not present in CustomerID mapping file</t>
+  </si>
+  <si>
+    <t>Customer Product Code or Quantity Column is not found in output singularity file</t>
+  </si>
+  <si>
+    <t>FIJ_NonEDI_COE_PythonFolderPath</t>
+  </si>
+  <si>
+    <t>Hi Team,; Bot has started it's run at {0}.Bot execution summary will be shared soon.</t>
+  </si>
+  <si>
+    <t>Email_Body_NoMailFound</t>
+  </si>
+  <si>
+    <t>Hi Team,;No orders found to process. Bot has ended execution.</t>
+  </si>
+  <si>
+    <t>Email_Subject_NoData</t>
+  </si>
+  <si>
+    <t>Best Regards,&lt;Br&gt;FIJI Water CS Team.&lt;Br&gt;TWC Automation Support&lt;Br&gt;Robot ID : &lt;RobotID&gt;.&lt;Br&gt;&lt;Br&gt;Do not reply to this mail as this is BOT generated email.</t>
+  </si>
+  <si>
+    <t>SC-LM-0031</t>
+  </si>
+  <si>
+    <t>Sent 'no attachments found' mail to: {0}</t>
+  </si>
+  <si>
+    <t>Hi Team,;Thank you for the order. Order for PO Number {0} has been successfully created.</t>
+  </si>
+  <si>
+    <t>Mail_SignatureReply</t>
+  </si>
+  <si>
+    <t>Best Regards,&lt;Br&gt;FIJI Water CS Team</t>
+  </si>
+  <si>
+    <t>SC-LM-0032</t>
+  </si>
+  <si>
+    <t>Error occurred at Initialization: {0}</t>
+  </si>
+  <si>
     <t>D:\RPA\FIJI_NonEDI_COE(OCR)\</t>
-  </si>
-  <si>
-    <t>Due To Poor Network Connectivity or Application Down Time</t>
-  </si>
-  <si>
-    <t>Invalid Username or Password</t>
-  </si>
-  <si>
-    <t>Invalid Order Item</t>
-  </si>
-  <si>
-    <t>EX-LBM-NEDI-0026</t>
-  </si>
-  <si>
-    <t>Missing Template/Mapping files: {0}</t>
-  </si>
-  <si>
-    <t>ProcessFolders</t>
-  </si>
-  <si>
-    <t>Email_Body_Missing_Mappingfiles</t>
-  </si>
-  <si>
-    <t>Hi Team,;Missing Mapping files in shared folder: {0}</t>
-  </si>
-  <si>
-    <t>LocationChefWHMapp</t>
-  </si>
-  <si>
-    <t>chefswarehouse</t>
-  </si>
-  <si>
-    <t>LocationMSWMapp</t>
-  </si>
-  <si>
-    <t>mswalker</t>
-  </si>
-  <si>
-    <t>server.singularitysystems.com:9000</t>
-  </si>
-  <si>
-    <t>OutlookReceiveAccountName</t>
-  </si>
-  <si>
-    <t>FIJ_NonEDI_COE_SummaryReport_SDFolderPath</t>
-  </si>
-  <si>
-    <t>FIJ_NonEDI_COE_OutlookReceiveAccountName</t>
-  </si>
-  <si>
-    <t>FIJ_NonEDI_COE_OutlookMailFolder</t>
-  </si>
-  <si>
-    <t>FIJ_NonEDI_COE_OutlookProcessedMailFolder</t>
-  </si>
-  <si>
-    <t>FIJ_NonEDI_COE_ApplicationExceptionMailsFrom</t>
-  </si>
-  <si>
-    <t>FIJ_NonEDI_COE_BusinessNotificationMailsFrom</t>
-  </si>
-  <si>
-    <t>FIJ_NonEDI_COE_OutlookSentAccountName</t>
-  </si>
-  <si>
-    <t>Best Regards,&lt;Br&gt;FIJI Water CS Team.</t>
-  </si>
-  <si>
-    <t>ManualReviewExpMsg</t>
-  </si>
-  <si>
-    <t>Attachment is moving to Manual review</t>
-  </si>
-  <si>
-    <t>NoAttachmentsExpMsg</t>
-  </si>
-  <si>
-    <t>Attachments is not present in mail</t>
-  </si>
-  <si>
-    <t>Hi Team,; No attachments found on this mail.</t>
-  </si>
-  <si>
-    <t>FIJ_NonEDI_COE_OracleEBSURL</t>
   </si>
 </sst>
 </file>
@@ -1619,13 +1637,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
@@ -1636,7 +1654,37 @@
     <cellStyle name="Normal 5" xfId="4" xr:uid="{56185D18-FE19-4579-ACA1-2DED8DD9B52E}"/>
     <cellStyle name="Normal 6" xfId="5" xr:uid="{79FFBEFB-E024-456A-BC80-028EA6581992}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2068,10 +2116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -2101,7 +2149,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1">
@@ -2112,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1">
@@ -2120,10 +2168,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1">
@@ -2136,13 +2184,13 @@
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1">
@@ -2171,7 +2219,7 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" s="4" t="b">
         <v>0</v>
@@ -2179,7 +2227,7 @@
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>CONCATENATE(A14,",",A15,",",A16,",",A20,",",A21,",",A22,",",A23,",",A24,",",A25)</f>
@@ -2188,13 +2236,13 @@
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>419</v>
+        <v>156</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>453</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
@@ -2233,12 +2281,12 @@
         <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Inputs\OracleWindow</v>
       </c>
       <c r="C17" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1">
       <c r="A18" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B18" t="str">
         <f>B13 &amp; "MappingFiles\"</f>
@@ -2247,7 +2295,7 @@
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1">
       <c r="A19" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B19" t="str">
         <f>B13 &amp; "Templates\"</f>
@@ -2256,19 +2304,19 @@
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" t="str">
         <f>B13&amp;"ExceptionScreenshot\"</f>
         <v>D:\RPA\FIJI_NonEDI_COE(OCR)\ExceptionScreenshot\</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1">
       <c r="A21" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B21" t="str">
         <f>B13 &amp; "SingularityData\"</f>
@@ -2295,7 +2343,7 @@
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B24" t="str">
         <f>B21 &amp; "Processed\"</f>
@@ -2304,7 +2352,7 @@
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B25" t="str">
         <f>B21 &amp; "Exceptions\"</f>
@@ -2322,7 +2370,7 @@
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B27" t="str">
         <f>B18 &amp; "FIJI_NonEDI_OCR_CustomerIDMappingFile.xlsm"</f>
@@ -2344,311 +2392,312 @@
       </c>
       <c r="B29" t="str">
         <f ca="1">B15 &amp; "FIJI_NonEDI_SummaryReport_"&amp;TEXT(NOW(),"DD-MM-yyyyHHmm")&amp;".xlsx"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Outputs\FIJI_NonEDI_SummaryReport_14-04-20231925.xlsx</v>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Outputs\FIJI_NonEDI_SummaryReport_20-04-20231138.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1">
       <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>324</v>
+        <v>133</v>
+      </c>
+      <c r="B30" t="str">
+        <f>B13 &amp; "DoNotTouchFiles\Minio.py"</f>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\DoNotTouchFiles\Minio.py</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>404</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1">
       <c r="A32" t="s">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1">
       <c r="A33" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1">
       <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="12">
-        <f ca="1">TODAY()</f>
-        <v>45030</v>
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1">
       <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="B37" s="12">
+        <f ca="1">TODAY()</f>
+        <v>45036</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1">
       <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" t="str">
-        <f>A40&amp;","&amp;A41&amp;","&amp;A42&amp;","&amp;A43</f>
-        <v>SingularityPurchaseOrderField,SingularityShipToDateField,SingularityShipToLocationField,SingularityVendorNameField</v>
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1">
       <c r="A40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" t="s">
-        <v>313</v>
+        <v>91</v>
+      </c>
+      <c r="B40" t="str">
+        <f>A41&amp;","&amp;A42&amp;","&amp;A43&amp;","&amp;A44</f>
+        <v>SingularityPurchaseOrderField,SingularityShipToDateField,SingularityShipToLocationField,SingularityVendorNameField</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1">
       <c r="A43" t="s">
-        <v>385</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>384</v>
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1">
       <c r="A44" t="s">
-        <v>352</v>
-      </c>
-      <c r="B44" t="s">
-        <v>353</v>
+        <v>375</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12" customHeight="1">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12" customHeight="1">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12" customHeight="1">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>397</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12" customHeight="1">
       <c r="A54" t="s">
-        <v>383</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>384</v>
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12" customHeight="1">
       <c r="A55" t="s">
-        <v>400</v>
-      </c>
-      <c r="B55" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="12" customHeight="1">
-      <c r="A57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>113</v>
+        <v>373</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12" customHeight="1">
+      <c r="A56" t="s">
+        <v>389</v>
+      </c>
+      <c r="B56" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12" customHeight="1">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12" customHeight="1">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12" customHeight="1">
       <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12" customHeight="1">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" t="s">
         <v>144</v>
-      </c>
-      <c r="B60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="12" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B61" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B62" s="4">
+        <v>371</v>
+      </c>
+      <c r="B62" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B63" s="4">
         <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="12" customHeight="1">
-      <c r="A63" t="s">
-        <v>116</v>
-      </c>
-      <c r="B63" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12" customHeight="1">
       <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>359</v>
+      </c>
+      <c r="C64" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" t="s">
-        <v>369</v>
-      </c>
-      <c r="C64" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12" customHeight="1">
       <c r="A65" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12" customHeight="1">
       <c r="A66" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12" customHeight="1">
       <c r="A67" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B67" s="4">
         <v>5</v>
@@ -2656,7 +2705,7 @@
     </row>
     <row r="68" spans="1:3" ht="12" customHeight="1">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
@@ -2664,11 +2713,10 @@
     </row>
     <row r="69" spans="1:3" ht="12" customHeight="1">
       <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
         <v>134</v>
-      </c>
-      <c r="B69" t="str">
-        <f>B13 &amp; "DoNotTouchFiles\Minio.py"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\DoNotTouchFiles\Minio.py</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12" customHeight="1">
@@ -2676,47 +2724,47 @@
         <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12" customHeight="1">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12" customHeight="1">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>432</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12" customHeight="1">
       <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>333</v>
+        <v>338</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12" customHeight="1">
       <c r="A74" t="s">
-        <v>346</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>347</v>
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12" customHeight="1">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12" customHeight="1">
@@ -2724,7 +2772,10 @@
         <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>317</v>
+        <v>330</v>
+      </c>
+      <c r="C76" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12" customHeight="1">
@@ -2732,18 +2783,18 @@
         <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12" customHeight="1">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
         <v>218</v>
@@ -2751,433 +2802,447 @@
     </row>
     <row r="79" spans="1:3" ht="12" customHeight="1">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
-        <v>220</v>
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12" customHeight="1">
       <c r="A80" t="s">
-        <v>160</v>
-      </c>
-      <c r="B80" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12" customHeight="1">
       <c r="A81" t="s">
-        <v>162</v>
-      </c>
-      <c r="B81" t="s">
         <v>163</v>
       </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
       <c r="C81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12" customHeight="1">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82">
-        <v>2</v>
+      <c r="B82" t="s">
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12" customHeight="1">
       <c r="A83" t="s">
         <v>165</v>
       </c>
-      <c r="B83">
-        <v>3</v>
+      <c r="B83" t="s">
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12" customHeight="1">
       <c r="A84" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" t="s">
-        <v>107</v>
+        <v>167</v>
+      </c>
+      <c r="B84" t="str">
+        <f>"[" &amp; B4 &amp; "]:Application Exception Notification"</f>
+        <v>[FIJ_NonEDI_COE(OCR)_Process]:Application Exception Notification</v>
       </c>
       <c r="C84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12" customHeight="1">
       <c r="A85" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" t="s">
         <v>168</v>
       </c>
+      <c r="B85" t="str">
+        <f xml:space="preserve"> "[" &amp;  B4 &amp; "]:Business Exception Notification"</f>
+        <v>[FIJ_NonEDI_COE(OCR)_Process]:Business Exception Notification</v>
+      </c>
       <c r="C85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12" customHeight="1">
       <c r="A86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" t="str">
-        <f>"[" &amp; B4 &amp; "]:Application Exception Notification"</f>
-        <v>[FIJ_NonEDI_COE(OCR)_Process]:Application Exception Notification</v>
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
+        <v>316</v>
       </c>
       <c r="C86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12" customHeight="1">
-      <c r="A87" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" t="str">
-        <f xml:space="preserve"> "[" &amp;  B4 &amp; "]:Business Exception Notification"</f>
-        <v>[FIJ_NonEDI_COE(OCR)_Process]:Business Exception Notification</v>
-      </c>
-      <c r="C87" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="12" customHeight="1">
-      <c r="A89" t="s">
-        <v>173</v>
-      </c>
-      <c r="B89" t="s">
-        <v>322</v>
-      </c>
-      <c r="C89" t="s">
-        <v>229</v>
-      </c>
-    </row>
+      <c r="A87" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" s="2" t="str">
+        <f>B4 &amp; " Bot Started"</f>
+        <v>FIJ_NonEDI_COE(OCR)_Process Bot Started</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="12" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B88" s="2" t="str">
+        <f>B4 &amp; ": No orders found for processing"</f>
+        <v>FIJ_NonEDI_COE(OCR)_Process: No orders found for processing</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="2" customFormat="1" ht="12" customHeight="1"/>
     <row r="90" spans="1:3" ht="12" customHeight="1">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C90" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12" customHeight="1">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B91" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12" customHeight="1">
       <c r="A92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C92" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12" customHeight="1">
       <c r="A93" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B93" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C93" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12" customHeight="1">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B94" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C94" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12" customHeight="1">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B95" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12" customHeight="1">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="12" customHeight="1">
-      <c r="A97" s="21" t="s">
-        <v>426</v>
+      <c r="A97" s="20" t="s">
+        <v>414</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="12" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="12" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="12" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="12" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="12" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="12" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="12" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="12" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="12" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="12" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="12" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="12" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="12" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="16" customFormat="1" ht="12" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="16" customFormat="1" ht="12" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="16" customFormat="1" ht="12" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="12" customHeight="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="16" customFormat="1" ht="12" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>201</v>
+        <v>442</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>330</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="12" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="12" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="12" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="12" customHeight="1">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B118" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="12" customHeight="1">
       <c r="A119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C119" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="12" customHeight="1">
       <c r="A120" t="s">
-        <v>180</v>
-      </c>
-      <c r="B120" t="s">
-        <v>181</v>
-      </c>
-      <c r="C120" t="s">
-        <v>234</v>
+        <v>449</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="12" customHeight="1">
-      <c r="A121" s="3" t="s">
-        <v>184</v>
+      <c r="A121" t="s">
+        <v>178</v>
       </c>
       <c r="B121" t="s">
-        <v>325</v>
+        <v>179</v>
+      </c>
+      <c r="C121" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="12" customHeight="1">
-      <c r="A122" t="s">
-        <v>211</v>
+      <c r="A122" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="12" customHeight="1">
       <c r="A123" t="s">
-        <v>442</v>
-      </c>
-      <c r="B123" t="s">
-        <v>443</v>
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="12" customHeight="1">
       <c r="A124" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B124" t="s">
-        <v>445</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="12" customHeight="1">
+      <c r="A125" t="s">
+        <v>431</v>
+      </c>
+      <c r="B125" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
+  <conditionalFormatting sqref="A122">
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:A110 A78:A85 A112:A121 A87:A88 A123 A125">
+    <cfRule type="duplicateValues" dxfId="11" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:A121 A78:A88 A123 A125 A90:A110">
+    <cfRule type="duplicateValues" dxfId="10" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89:XFD89">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90:A110 A79:A88 A112:A120 A122 A124">
-    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A110 A112:A120 A122 A124">
-    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
+  <conditionalFormatting sqref="A89:XFD89">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3243,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
@@ -3254,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
@@ -3265,7 +3330,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
@@ -3273,10 +3338,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
@@ -3284,10 +3349,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
@@ -3295,10 +3360,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
@@ -3306,10 +3371,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
@@ -3317,10 +3382,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
@@ -3328,10 +3393,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
@@ -3342,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
@@ -3353,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
@@ -3364,12 +3429,12 @@
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B14" s="14">
         <v>60000</v>
@@ -3384,10 +3449,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EE7466-E597-4239-A893-CB86FF34A466}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="14.25" customHeight="1"/>
@@ -3412,10 +3477,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
@@ -3423,10 +3488,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
@@ -3434,7 +3499,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -3443,10 +3508,10 @@
         <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
@@ -3454,7 +3519,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -3463,7 +3528,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -3472,10 +3537,10 @@
         <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
@@ -3483,7 +3548,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -3492,7 +3557,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -3501,7 +3566,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -3510,10 +3575,10 @@
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
@@ -3521,10 +3586,10 @@
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
@@ -3532,10 +3597,10 @@
         <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
@@ -3543,10 +3608,10 @@
         <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
@@ -3554,10 +3619,10 @@
         <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -3565,10 +3630,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -3576,10 +3641,10 @@
         <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -3587,10 +3652,10 @@
         <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -3598,10 +3663,10 @@
         <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -3609,10 +3674,10 @@
         <v>59</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -3620,10 +3685,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -3631,80 +3696,96 @@
         <v>61</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>413</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3800,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="13.5" customHeight="1"/>
@@ -3736,13 +3817,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>44</v>
@@ -3756,13 +3837,13 @@
         <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
@@ -3773,10 +3854,10 @@
         <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -3788,28 +3869,28 @@
         <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1">
@@ -3820,10 +3901,10 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -3835,10 +3916,10 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -3850,13 +3931,13 @@
         <v>47</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
@@ -3867,7 +3948,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>296</v>
+        <v>437</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -3880,7 +3961,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3893,13 +3974,13 @@
         <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1">
@@ -3910,13 +3991,13 @@
         <v>47</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>355</v>
+        <v>439</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1">
@@ -3927,10 +4008,10 @@
         <v>47</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -3942,7 +4023,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -3955,7 +4036,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -3968,152 +4049,152 @@
         <v>47</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="6" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A27">
-    <cfRule type="duplicateValues" dxfId="5" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="32"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4124,8 +4205,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4147,7 +4228,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4174,90 +4255,90 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -4265,23 +4346,23 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>434</v>
+      <c r="A14" s="21" t="s">
+        <v>422</v>
       </c>
       <c r="B14" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -4289,7 +4370,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -4297,7 +4378,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -4305,23 +4386,23 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -4329,11 +4410,18 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>447</v>
-      </c>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>434</v>
+      </c>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>440</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
@@ -5309,18 +5397,21 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="A8:A9">
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5">
     <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7 A10:A14">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A20">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
+  <conditionalFormatting sqref="A22">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algonox123\Documents\Uipath\FIJI_NonEDI_COE_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D964783-8FE4-4955-93E1-6D0C3C29889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5ED60F-0350-49F0-8D14-654AB2529B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -2118,8 +2118,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B29" t="str">
         <f ca="1">B15 &amp; "FIJI_NonEDI_SummaryReport_"&amp;TEXT(NOW(),"DD-MM-yyyyHHmm")&amp;".xlsx"</f>
-        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Outputs\FIJI_NonEDI_SummaryReport_20-04-20231138.xlsx</v>
+        <v>D:\RPA\FIJI_NonEDI_COE(OCR)\Outputs\FIJI_NonEDI_SummaryReport_17-05-20231849.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B37" s="12">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45063</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1">
@@ -3799,8 +3799,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="13.5" customHeight="1"/>
